--- a/EditProject/Design/Stage/G_EnemyBullet.xlsx
+++ b/EditProject/Design/Stage/G_EnemyBullet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="8020" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="4935" yWindow="8025" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -141,8 +141,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,7 +184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -512,19 +512,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="22.1640625" customWidth="1"/>
+    <col min="1" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="7" width="18" customWidth="1"/>
     <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -629,6 +629,9 @@
       <c r="D6">
         <v>1</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
       <c r="G6">
         <v>100</v>
       </c>
@@ -649,6 +652,9 @@
       <c r="D7">
         <v>1</v>
       </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
       <c r="G7">
         <v>100</v>
       </c>
@@ -668,6 +674,9 @@
       </c>
       <c r="D8">
         <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="G8">
         <v>100</v>
@@ -688,14 +697,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/EditProject/Design/Stage/G_EnemyBullet.xlsx
+++ b/EditProject/Design/Stage/G_EnemyBullet.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4935" yWindow="8025" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="9040" yWindow="13960" windowWidth="30220" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,35 +114,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effectStr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>effect</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>effectEx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外效果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>effectStr</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>额外效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -512,22 +524,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="16.125" customWidth="1"/>
+    <col min="1" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -544,19 +556,22 @@
         <v>28</v>
       </c>
       <c r="F1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -570,22 +585,25 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -599,24 +617,27 @@
         <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" hidden="1"/>
-    <row r="5" spans="1:9" hidden="1"/>
-    <row r="6" spans="1:9">
+    <row r="4" spans="1:10" hidden="1"/>
+    <row r="5" spans="1:10" hidden="1"/>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>6001001</v>
       </c>
@@ -632,14 +653,17 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="G6">
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>100</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>6001002</v>
       </c>
@@ -655,14 +679,17 @@
       <c r="E7">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>100</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>999</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>6001003</v>
       </c>
@@ -678,10 +705,13 @@
       <c r="E8">
         <v>0</v>
       </c>
-      <c r="G8">
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>100</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>999</v>
       </c>
     </row>
@@ -697,14 +727,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
